--- a/sources/case/Offboard.xlsx
+++ b/sources/case/Offboard.xlsx
@@ -573,109 +573,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -687,32 +697,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -720,46 +729,43 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -767,46 +773,43 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -814,42 +817,39 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" t="s">
         <v>26</v>
       </c>
     </row>

--- a/sources/case/Offboard.xlsx
+++ b/sources/case/Offboard.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
   <si>
     <t>CaseID</t>
   </si>
@@ -104,89 +104,178 @@
     <t>approval_creating</t>
   </si>
   <si>
+    <t>辞职</t>
+  </si>
+  <si>
+    <t>辞职</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hr/v1/formrecords?form=employee_offboard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>${addMem_1.uuid}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_1.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_1.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_1.position}</t>
+  </si>
+  <si>
+    <t>${addMem_1.position_ID}</t>
+  </si>
+  <si>
+    <t>辞职审批测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_1.name}</t>
+  </si>
+  <si>
+    <t>${addMem_2.uuid}</t>
+  </si>
+  <si>
+    <t>${addMem_2.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_2.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_2.position}</t>
+  </si>
+  <si>
+    <t>${addMem_2.name}</t>
+  </si>
+  <si>
+    <t>${addMem_2.position_ID}</t>
+  </si>
+  <si>
+    <t>offboard_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-10-31T18:27:36+08:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_3.uuid}</t>
+  </si>
+  <si>
+    <t>${addMem_3.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_3.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_3.position}</t>
+  </si>
+  <si>
+    <t>${addMem_3.name}</t>
+  </si>
+  <si>
+    <t>${addMem_3.position_ID}</t>
+  </si>
+  <si>
     <t>Offboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辞职</t>
-  </si>
-  <si>
-    <t>辞职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hr/v1/formrecords?form=employee_offboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_2</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>${addMem_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_1.organization}</t>
-  </si>
-  <si>
-    <t>${addMem_1.organization_ID}</t>
-  </si>
-  <si>
-    <t>${addMem_1.position}</t>
-  </si>
-  <si>
-    <t>${addMem_1.position_ID}</t>
-  </si>
-  <si>
-    <t>辞职审批测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辞职审批测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_1.name}</t>
-  </si>
-  <si>
-    <t>${addMem_2.uuid}</t>
-  </si>
-  <si>
-    <t>${addMem_2.organization}</t>
-  </si>
-  <si>
-    <t>${addMem_2.organization_ID}</t>
-  </si>
-  <si>
-    <t>${addMem_2.position}</t>
-  </si>
-  <si>
-    <t>${addMem_2.name}</t>
-  </si>
-  <si>
-    <t>${addMem_2.position_ID}</t>
-  </si>
-  <si>
-    <t>offboard_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-10-31T18:27:36+08:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign_2</t>
+  </si>
+  <si>
+    <t>Offboard_resign_3</t>
+  </si>
+  <si>
+    <t>${addMem_4.uuid}</t>
+  </si>
+  <si>
+    <t>${addMem_5.uuid}</t>
+  </si>
+  <si>
+    <t>${addMem_6.uuid}</t>
+  </si>
+  <si>
+    <t>${addMem_4.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_5.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_6.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_4.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_5.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_6.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_4.position}</t>
+  </si>
+  <si>
+    <t>${addMem_5.position}</t>
+  </si>
+  <si>
+    <t>${addMem_6.position}</t>
+  </si>
+  <si>
+    <t>${addMem_4.name}</t>
+  </si>
+  <si>
+    <t>${addMem_5.name}</t>
+  </si>
+  <si>
+    <t>${addMem_6.name}</t>
+  </si>
+  <si>
+    <t>辞退</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_4.position_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_5.position_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_6.position_ID}</t>
+  </si>
+  <si>
+    <t>辞退审批测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_dismiss_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_dismiss_2</t>
+  </si>
+  <si>
+    <t>Offboard_dismiss_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -195,10 +284,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -219,18 +323,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -511,7 +626,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,10 +661,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -558,14 +673,14 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -573,21 +688,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
@@ -598,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -626,86 +741,214 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
@@ -744,7 +987,7 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
         <v>13</v>
@@ -766,17 +1009,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>31</v>
+      <c r="A2" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -785,42 +1028,42 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
+      <c r="A3" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -829,32 +1072,208 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/case/Offboard.xlsx
+++ b/sources/case/Offboard.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -77,9 +77,6 @@
     <t>tenant_id</t>
   </si>
   <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-  </si>
-  <si>
     <t>is_deleted</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
   </si>
   <si>
     <t>user_id</t>
-  </si>
-  <si>
-    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
   </si>
   <si>
     <t>status</t>
@@ -269,6 +263,14 @@
   </si>
   <si>
     <t>Offboard_dismiss_3</t>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.user_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.tenant_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -661,10 +663,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -673,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -690,7 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -713,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -742,194 +744,194 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
         <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
         <v>49</v>
-      </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
         <v>69</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>71</v>
-      </c>
-      <c r="J6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -942,18 +944,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.625" bestFit="1" customWidth="1"/>
@@ -978,22 +980,22 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -1005,271 +1007,271 @@
         <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>77</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" t="s">
         <v>71</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="N6" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
         <v>78</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" t="s">
         <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Offboard.xlsx
+++ b/sources/case/Offboard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="95">
   <si>
     <t>CaseID</t>
   </si>
@@ -102,18 +102,18 @@
   </si>
   <si>
     <t>辞职</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/hr/v1/formrecords?form=employee_offboard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>organization</t>
   </si>
   <si>
     <t>${addMem_1.uuid}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>${addMem_1.organization}</t>
@@ -129,7 +129,7 @@
   </si>
   <si>
     <t>辞职审批测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>${addMem_1.name}</t>
@@ -154,11 +154,11 @@
   </si>
   <si>
     <t>offboard_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2017-10-31T18:27:36+08:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>${addMem_3.uuid}</t>
@@ -180,11 +180,11 @@
   </si>
   <si>
     <t>Offboard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign_2</t>
@@ -239,7 +239,7 @@
   </si>
   <si>
     <t>辞退</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>${addMem_4.position_ID}</t>
@@ -252,11 +252,11 @@
   </si>
   <si>
     <t>辞退审批测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss_2</t>
@@ -266,23 +266,137 @@
   </si>
   <si>
     <t>$csv{data.Tenant.microfastup.user_id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>$csv{data.Tenant.microfastup.tenant_id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_13.employee_id}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_15.employee_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_16.employee_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_17.employee_id}</t>
+  </si>
+  <si>
+    <r>
+      <t>Offboard_resign_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Offboard_resign_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Offboard_resign_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Offboard_resign_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17</t>
+    </r>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_13.user_name}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_15.user_name}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_16.user_name}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_17.user_name}</t>
+  </si>
+  <si>
+    <t>${organization_1.name}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.name}</t>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.uuid}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,18 +443,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,7 +745,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -682,7 +799,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -690,22 +807,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -934,18 +1051,123 @@
         <v>72</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -956,7 +1178,7 @@
     <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
@@ -1274,8 +1496,160 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/case/Offboard.xlsx
+++ b/sources/case/Offboard.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -102,18 +102,18 @@
   </si>
   <si>
     <t>辞职</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/hr/v1/formrecords?form=employee_offboard</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>organization</t>
   </si>
   <si>
     <t>${addMem_1.uuid}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>${addMem_1.organization}</t>
@@ -129,7 +129,7 @@
   </si>
   <si>
     <t>辞职审批测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>${addMem_1.name}</t>
@@ -154,11 +154,11 @@
   </si>
   <si>
     <t>offboard_date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2017-10-31T18:27:36+08:00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>${addMem_3.uuid}</t>
@@ -180,11 +180,11 @@
   </si>
   <si>
     <t>Offboard</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign_2</t>
@@ -239,7 +239,7 @@
   </si>
   <si>
     <t>辞退</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>${addMem_4.position_ID}</t>
@@ -252,11 +252,11 @@
   </si>
   <si>
     <t>辞退审批测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss_2</t>
@@ -266,15 +266,15 @@
   </si>
   <si>
     <t>$csv{data.Tenant.microfastup.user_id}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>$csv{data.Tenant.microfastup.tenant_id}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>$csv{data.Auth.user_13.employee_id}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>$csv{data.Auth.user_15.employee_id}</t>
@@ -300,7 +300,7 @@
       </rPr>
       <t>13</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -352,7 +352,7 @@
   </si>
   <si>
     <t>$csv{data.Auth.user_13.user_name}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>$csv{data.Auth.user_15.user_name}</t>
@@ -365,30 +365,38 @@
   </si>
   <si>
     <t>${organization_1.name}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>${organization_2.name}</t>
   </si>
   <si>
     <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>${organization_2.uuid}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,10 +451,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -454,10 +462,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -745,7 +753,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -799,7 +807,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -809,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1156,7 +1164,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1166,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:I11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1649,7 +1657,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>